--- a/Тест_PVT.xlsx
+++ b/Тест_PVT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64233F7B-92BE-44E3-B5DE-713FFDB83C61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A7EE09-7F8F-4662-A91B-0D5D18E37B16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12274" windowHeight="3823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37236,6 +37236,7 @@
     <sheetNames>
       <sheetName val="База насосов"/>
       <sheetName val="Лист1"/>
+      <sheetName val="UniflocVBA7.2"/>
     </sheetNames>
     <definedNames>
       <definedName name="PVT_Bg_m3m3"/>
@@ -37255,6 +37256,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -37562,8 +37564,8 @@
   </sheetPr>
   <dimension ref="B2:M430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
